--- a/Archive/1920_RELAY_Y2_Character Tracker_Rd_3.xlsx
+++ b/Archive/1920_RELAY_Y2_Character Tracker_Rd_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyled\Desktop\master_defense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyled\Documents\GitHub\masters_defense\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B37043A-F89F-4087-A1CB-D5077080398C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9426861D-9AB5-45AC-8B45-41660A0FF462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1236" windowWidth="23256" windowHeight="12576" tabRatio="773" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="773" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
@@ -1248,6 +1248,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,33 +1280,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2711,14 +2711,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
@@ -2726,115 +2726,115 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>1</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>2</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>3</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>4</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>5</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>32</v>
       </c>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>37</v>
       </c>
@@ -2958,439 +2958,439 @@
       <selection pane="topRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
     <col min="8" max="8" width="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="13.09765625" customWidth="1"/>
+    <col min="15" max="15" width="12.69921875" customWidth="1"/>
     <col min="16" max="16" width="1.5" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="13.09765625" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" customWidth="1"/>
     <col min="20" max="20" width="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" customWidth="1"/>
-    <col min="23" max="23" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="13.09765625" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" customWidth="1"/>
     <col min="24" max="24" width="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" customWidth="1"/>
-    <col min="27" max="27" width="12.75" customWidth="1"/>
+    <col min="26" max="26" width="13.09765625" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" customWidth="1"/>
     <col min="28" max="28" width="1.5" customWidth="1"/>
-    <col min="30" max="30" width="13.125" customWidth="1"/>
-    <col min="31" max="31" width="12.75" customWidth="1"/>
+    <col min="30" max="30" width="13.09765625" customWidth="1"/>
+    <col min="31" max="31" width="12.69921875" customWidth="1"/>
     <col min="32" max="32" width="1" customWidth="1"/>
-    <col min="34" max="34" width="13.125" customWidth="1"/>
-    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="34" max="34" width="13.09765625" customWidth="1"/>
+    <col min="35" max="35" width="12.69921875" customWidth="1"/>
     <col min="36" max="36" width="1" customWidth="1"/>
-    <col min="38" max="38" width="13.125" customWidth="1"/>
-    <col min="39" max="39" width="12.75" customWidth="1"/>
+    <col min="38" max="38" width="13.09765625" customWidth="1"/>
+    <col min="39" max="39" width="12.69921875" customWidth="1"/>
     <col min="40" max="40" width="1.5" customWidth="1"/>
-    <col min="42" max="42" width="13.125" customWidth="1"/>
-    <col min="43" max="43" width="12.75" customWidth="1"/>
+    <col min="42" max="42" width="13.09765625" customWidth="1"/>
+    <col min="43" max="43" width="12.69921875" customWidth="1"/>
     <col min="44" max="44" width="1" customWidth="1"/>
-    <col min="46" max="46" width="13.125" customWidth="1"/>
-    <col min="47" max="47" width="12.75" customWidth="1"/>
+    <col min="46" max="46" width="13.09765625" customWidth="1"/>
+    <col min="47" max="47" width="12.69921875" customWidth="1"/>
     <col min="48" max="48" width="1" customWidth="1"/>
-    <col min="50" max="50" width="13.125" customWidth="1"/>
-    <col min="51" max="51" width="12.75" customWidth="1"/>
+    <col min="50" max="50" width="13.09765625" customWidth="1"/>
+    <col min="51" max="51" width="12.69921875" customWidth="1"/>
     <col min="52" max="52" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:52" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AC1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
       <c r="AJ1" s="25"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="6"/>
-      <c r="AO1" s="50" t="s">
+      <c r="AO1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
       <c r="AV1" s="25"/>
       <c r="AW1" s="25"/>
       <c r="AX1" s="25"/>
       <c r="AY1" s="25"/>
       <c r="AZ1" s="6"/>
     </row>
-    <row r="2" spans="1:52" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:52" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="21"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="52">
+      <c r="E2" s="50">
         <f>AVERAGE(E5:K5)</f>
         <v>3.5388888888888888</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="4"/>
       <c r="M2" s="21"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="52">
+      <c r="Q2" s="50">
         <f>AVERAGE(Q5:W5)</f>
         <v>3.5388888888888892</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="52">
+      <c r="AC2" s="50">
         <f>AVERAGE(AC5:AI5)</f>
         <v>3.7126436781609202</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="39"/>
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="6"/>
-      <c r="AO2" s="52" t="e">
+      <c r="AO2" s="50" t="e">
         <f>AVERAGE(AO5:AU5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
       <c r="AV2" s="4"/>
       <c r="AW2" s="39"/>
       <c r="AX2" s="39"/>
       <c r="AY2" s="39"/>
       <c r="AZ2" s="6"/>
     </row>
-    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="22"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="46">
+      <c r="E3" s="53">
         <f>((450-COUNTBLANK(E11:G160)-COUNTIF(E11:G160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(E11:G160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="46">
+      <c r="I3" s="53">
         <f>((450-COUNTBLANK(I11:K160)-COUNTIF(I11:K160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(I11:K160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="46">
+      <c r="M3" s="53">
         <f>((450-COUNTBLANK(M11:O160)-COUNTIF(M11:O160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(M11:O160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="46">
+      <c r="Q3" s="53">
         <f>((450-COUNTBLANK(Q11:S160)-COUNTIF(Q11:S160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Q11:S160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="46">
+      <c r="U3" s="53">
         <f>((450-COUNTBLANK(U11:W160)-COUNTIF(U11:W160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(U11:W160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="46">
+      <c r="Y3" s="53">
         <f>((450-COUNTBLANK(Y11:AA160)-COUNTIF(Y11:AA160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Y11:AA160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="46">
+      <c r="AC3" s="53">
         <f>((450-COUNTBLANK(AC11:AE160)-COUNTIF(AC11:AE160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AC11:AE160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="46">
+      <c r="AG3" s="53">
         <f>((450-COUNTBLANK(AG11:AI160)-COUNTIF(AG11:AI160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AG11:AI160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="46">
+      <c r="AK3" s="53">
         <f>((450-COUNTBLANK(AK11:AM160)-COUNTIF(AK11:AM160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AK11:AM160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
       <c r="AN3" s="3"/>
-      <c r="AO3" s="46">
+      <c r="AO3" s="53">
         <f>((450-COUNTBLANK(AO11:AQ160)-COUNTIF(AO11:AQ160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AO11:AQ160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
       <c r="AR3" s="3"/>
-      <c r="AS3" s="46">
+      <c r="AS3" s="53">
         <f>((450-COUNTBLANK(AS11:AU160)-COUNTIF(AS11:AU160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AS11:AU160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="46">
+      <c r="AW3" s="53">
         <f>((450-COUNTBLANK(AW11:AY160)-COUNTIF(AW11:AY160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AW11:AY160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D4" s="5"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="I4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="U4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
+      <c r="AG4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
       <c r="AN4" s="3"/>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
       <c r="AV4" s="3"/>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="49">
+      <c r="E5" s="58">
         <f>IF(E8="","",AVERAGE(E8:G8))</f>
         <v>3.9777777777777779</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="49">
+      <c r="I5" s="58">
         <f>IF(I8="","",AVERAGE(I8:K8))</f>
         <v>3.1</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="49" t="str">
+      <c r="M5" s="58" t="str">
         <f>IF(M8="","",AVERAGE(M8:O8))</f>
         <v/>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="49">
+      <c r="Q5" s="58">
         <f>IF(Q8="","",AVERAGE(Q8:S8))</f>
         <v>3.755555555555556</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="49">
+      <c r="U5" s="58">
         <f>IF(U8="","",AVERAGE(U8:W8))</f>
         <v>3.3222222222222224</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="49">
+      <c r="Y5" s="58">
         <f>IF(Y8="","",AVERAGE(Y8:AA8))</f>
         <v>4.1222222222222227</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="49">
+      <c r="AC5" s="58">
         <f>IF(AC8="","",AVERAGE(AC8:AE8))</f>
         <v>3.8505747126436787</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="49">
+      <c r="AG5" s="58">
         <f>IF(AG8="","",AVERAGE(AG8:AI8))</f>
         <v>3.5747126436781613</v>
       </c>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="49">
+      <c r="AK5" s="58">
         <f>IF(AK8="","",AVERAGE(AK8:AM8))</f>
         <v>4.0689655172413799</v>
       </c>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="49" t="str">
+      <c r="AO5" s="58" t="str">
         <f>IF(AO8="","",AVERAGE(AO8:AQ8))</f>
         <v/>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
       <c r="AR5" s="3"/>
-      <c r="AS5" s="49" t="str">
+      <c r="AS5" s="58" t="str">
         <f>IF(AS8="","",AVERAGE(AS8:AU8))</f>
         <v/>
       </c>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
       <c r="AV5" s="3"/>
-      <c r="AW5" s="49" t="str">
+      <c r="AW5" s="58" t="str">
         <f>IF(AW8="","",AVERAGE(AW8:AY8))</f>
         <v/>
       </c>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="93.6" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="26" t="s">
         <v>15</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="H9" s="4"/>
       <c r="L9" s="4"/>
@@ -3818,7 +3818,7 @@
       <c r="AV9" s="4"/>
       <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="5"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="AY11" s="13"/>
       <c r="AZ11" s="40"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="AY12" s="13"/>
       <c r="AZ12" s="40"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="AY13" s="13"/>
       <c r="AZ13" s="40"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="AY14" s="13"/>
       <c r="AZ14" s="40"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="AY15" s="13"/>
       <c r="AZ15" s="40"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="AY16" s="13"/>
       <c r="AZ16" s="40"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="AY17" s="13"/>
       <c r="AZ17" s="40"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="AY18" s="13"/>
       <c r="AZ18" s="40"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="AY19" s="13"/>
       <c r="AZ19" s="40"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="AY20" s="13"/>
       <c r="AZ20" s="40"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="AY21" s="13"/>
       <c r="AZ21" s="40"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -5150,7 +5150,7 @@
       <c r="AY22" s="13"/>
       <c r="AZ22" s="40"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="AY23" s="13"/>
       <c r="AZ23" s="40"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="AY24" s="13"/>
       <c r="AZ24" s="40"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="AY25" s="13"/>
       <c r="AZ25" s="40"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="AY26" s="13"/>
       <c r="AZ26" s="40"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="AY27" s="13"/>
       <c r="AZ27" s="40"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="AY28" s="13"/>
       <c r="AZ28" s="40"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -5892,7 +5892,7 @@
       <c r="AY29" s="13"/>
       <c r="AZ29" s="40"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="AY30" s="13"/>
       <c r="AZ30" s="40"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="40"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="AY32" s="13"/>
       <c r="AZ32" s="40"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="AY33" s="13"/>
       <c r="AZ33" s="40"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AY34" s="13"/>
       <c r="AZ34" s="40"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="AY35" s="13"/>
       <c r="AZ35" s="40"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="AY36" s="13"/>
       <c r="AZ36" s="40"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="AY37" s="13"/>
       <c r="AZ37" s="40"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="AY38" s="13"/>
       <c r="AZ38" s="40"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="AY39" s="13"/>
       <c r="AZ39" s="40"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="AY40" s="13"/>
       <c r="AZ40" s="40"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -7112,7 +7112,7 @@
       <c r="AY41" s="13"/>
       <c r="AZ41" s="40"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="23"/>
@@ -7166,7 +7166,7 @@
       <c r="AY42" s="13"/>
       <c r="AZ42" s="40"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="23"/>
@@ -7220,7 +7220,7 @@
       <c r="AY43" s="13"/>
       <c r="AZ43" s="40"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="23"/>
@@ -7274,7 +7274,7 @@
       <c r="AY44" s="13"/>
       <c r="AZ44" s="40"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="23"/>
@@ -7328,7 +7328,7 @@
       <c r="AY45" s="13"/>
       <c r="AZ45" s="40"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="23"/>
@@ -7382,7 +7382,7 @@
       <c r="AY46" s="13"/>
       <c r="AZ46" s="40"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="23"/>
@@ -7436,7 +7436,7 @@
       <c r="AY47" s="13"/>
       <c r="AZ47" s="40"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="23"/>
@@ -7490,7 +7490,7 @@
       <c r="AY48" s="13"/>
       <c r="AZ48" s="40"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="23"/>
@@ -7544,7 +7544,7 @@
       <c r="AY49" s="13"/>
       <c r="AZ49" s="40"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="23"/>
@@ -7598,7 +7598,7 @@
       <c r="AY50" s="13"/>
       <c r="AZ50" s="40"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="23"/>
@@ -7652,7 +7652,7 @@
       <c r="AY51" s="13"/>
       <c r="AZ51" s="40"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="23"/>
@@ -7706,7 +7706,7 @@
       <c r="AY52" s="13"/>
       <c r="AZ52" s="40"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="23"/>
@@ -7760,7 +7760,7 @@
       <c r="AY53" s="13"/>
       <c r="AZ53" s="40"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="23"/>
@@ -7814,7 +7814,7 @@
       <c r="AY54" s="13"/>
       <c r="AZ54" s="40"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="23"/>
@@ -7868,7 +7868,7 @@
       <c r="AY55" s="13"/>
       <c r="AZ55" s="40"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="23"/>
@@ -7922,7 +7922,7 @@
       <c r="AY56" s="13"/>
       <c r="AZ56" s="40"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="23"/>
@@ -7976,7 +7976,7 @@
       <c r="AY57" s="13"/>
       <c r="AZ57" s="40"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="23"/>
@@ -8030,7 +8030,7 @@
       <c r="AY58" s="13"/>
       <c r="AZ58" s="40"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="23"/>
@@ -8084,7 +8084,7 @@
       <c r="AY59" s="13"/>
       <c r="AZ59" s="40"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="23"/>
@@ -8138,7 +8138,7 @@
       <c r="AY60" s="13"/>
       <c r="AZ60" s="40"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="23"/>
@@ -8192,7 +8192,7 @@
       <c r="AY61" s="13"/>
       <c r="AZ61" s="40"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="23"/>
@@ -8246,7 +8246,7 @@
       <c r="AY62" s="13"/>
       <c r="AZ62" s="40"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="23"/>
@@ -8300,7 +8300,7 @@
       <c r="AY63" s="13"/>
       <c r="AZ63" s="40"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="23"/>
@@ -8354,7 +8354,7 @@
       <c r="AY64" s="13"/>
       <c r="AZ64" s="40"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="23"/>
@@ -8408,7 +8408,7 @@
       <c r="AY65" s="13"/>
       <c r="AZ65" s="40"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="23"/>
@@ -8462,7 +8462,7 @@
       <c r="AY66" s="13"/>
       <c r="AZ66" s="40"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="23"/>
@@ -8516,7 +8516,7 @@
       <c r="AY67" s="13"/>
       <c r="AZ67" s="40"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="23"/>
@@ -8570,7 +8570,7 @@
       <c r="AY68" s="13"/>
       <c r="AZ68" s="40"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="23"/>
@@ -8624,7 +8624,7 @@
       <c r="AY69" s="13"/>
       <c r="AZ69" s="40"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="23"/>
@@ -8678,7 +8678,7 @@
       <c r="AY70" s="13"/>
       <c r="AZ70" s="40"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="23"/>
@@ -8732,7 +8732,7 @@
       <c r="AY71" s="13"/>
       <c r="AZ71" s="40"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="23"/>
@@ -8786,7 +8786,7 @@
       <c r="AY72" s="13"/>
       <c r="AZ72" s="40"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="23"/>
@@ -8840,7 +8840,7 @@
       <c r="AY73" s="13"/>
       <c r="AZ73" s="40"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="23"/>
@@ -8894,7 +8894,7 @@
       <c r="AY74" s="13"/>
       <c r="AZ74" s="40"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="23"/>
@@ -8948,7 +8948,7 @@
       <c r="AY75" s="13"/>
       <c r="AZ75" s="40"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="23"/>
@@ -9002,7 +9002,7 @@
       <c r="AY76" s="13"/>
       <c r="AZ76" s="40"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="23"/>
@@ -9056,7 +9056,7 @@
       <c r="AY77" s="13"/>
       <c r="AZ77" s="40"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="23"/>
@@ -9110,7 +9110,7 @@
       <c r="AY78" s="13"/>
       <c r="AZ78" s="40"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="23"/>
@@ -9164,7 +9164,7 @@
       <c r="AY79" s="16"/>
       <c r="AZ79" s="41"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="23"/>
@@ -9218,7 +9218,7 @@
       <c r="AY80" s="16"/>
       <c r="AZ80" s="41"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="23"/>
@@ -9272,7 +9272,7 @@
       <c r="AY81" s="16"/>
       <c r="AZ81" s="41"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="23"/>
@@ -9326,7 +9326,7 @@
       <c r="AY82" s="16"/>
       <c r="AZ82" s="41"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="23"/>
@@ -9380,7 +9380,7 @@
       <c r="AY83" s="16"/>
       <c r="AZ83" s="41"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="23"/>
@@ -9434,7 +9434,7 @@
       <c r="AY84" s="16"/>
       <c r="AZ84" s="41"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="23"/>
@@ -9488,7 +9488,7 @@
       <c r="AY85" s="16"/>
       <c r="AZ85" s="41"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="23"/>
@@ -9542,7 +9542,7 @@
       <c r="AY86" s="16"/>
       <c r="AZ86" s="41"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="23"/>
@@ -9596,7 +9596,7 @@
       <c r="AY87" s="16"/>
       <c r="AZ87" s="41"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="23"/>
@@ -9650,7 +9650,7 @@
       <c r="AY88" s="16"/>
       <c r="AZ88" s="41"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="23"/>
@@ -9704,7 +9704,7 @@
       <c r="AY89" s="16"/>
       <c r="AZ89" s="41"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="23"/>
@@ -9758,7 +9758,7 @@
       <c r="AY90" s="16"/>
       <c r="AZ90" s="41"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="23"/>
@@ -9812,7 +9812,7 @@
       <c r="AY91" s="16"/>
       <c r="AZ91" s="41"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="23"/>
@@ -9866,7 +9866,7 @@
       <c r="AY92" s="16"/>
       <c r="AZ92" s="41"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="23"/>
@@ -9920,7 +9920,7 @@
       <c r="AY93" s="16"/>
       <c r="AZ93" s="41"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="23"/>
@@ -9974,7 +9974,7 @@
       <c r="AY94" s="16"/>
       <c r="AZ94" s="41"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="23"/>
@@ -10028,7 +10028,7 @@
       <c r="AY95" s="16"/>
       <c r="AZ95" s="41"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="23"/>
@@ -10082,7 +10082,7 @@
       <c r="AY96" s="16"/>
       <c r="AZ96" s="41"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="23"/>
@@ -10136,7 +10136,7 @@
       <c r="AY97" s="16"/>
       <c r="AZ97" s="41"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="23"/>
@@ -10190,7 +10190,7 @@
       <c r="AY98" s="16"/>
       <c r="AZ98" s="41"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="23"/>
@@ -10244,7 +10244,7 @@
       <c r="AY99" s="16"/>
       <c r="AZ99" s="41"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="23"/>
@@ -10298,7 +10298,7 @@
       <c r="AY100" s="16"/>
       <c r="AZ100" s="41"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="23"/>
@@ -10352,7 +10352,7 @@
       <c r="AY101" s="16"/>
       <c r="AZ101" s="41"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="23"/>
@@ -10406,7 +10406,7 @@
       <c r="AY102" s="16"/>
       <c r="AZ102" s="41"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="23"/>
@@ -10460,7 +10460,7 @@
       <c r="AY103" s="16"/>
       <c r="AZ103" s="41"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="23"/>
@@ -10514,7 +10514,7 @@
       <c r="AY104" s="16"/>
       <c r="AZ104" s="41"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="23"/>
@@ -10568,7 +10568,7 @@
       <c r="AY105" s="16"/>
       <c r="AZ105" s="41"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="23"/>
@@ -10622,7 +10622,7 @@
       <c r="AY106" s="16"/>
       <c r="AZ106" s="41"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="18"/>
       <c r="C107" s="23"/>
@@ -10676,7 +10676,7 @@
       <c r="AY107" s="16"/>
       <c r="AZ107" s="41"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="23"/>
@@ -10730,7 +10730,7 @@
       <c r="AY108" s="16"/>
       <c r="AZ108" s="41"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="18"/>
       <c r="C109" s="23"/>
@@ -10784,7 +10784,7 @@
       <c r="AY109" s="16"/>
       <c r="AZ109" s="41"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="23"/>
@@ -10838,7 +10838,7 @@
       <c r="AY110" s="16"/>
       <c r="AZ110" s="41"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="18"/>
       <c r="C111" s="23"/>
@@ -10892,7 +10892,7 @@
       <c r="AY111" s="16"/>
       <c r="AZ111" s="41"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="18"/>
       <c r="C112" s="23"/>
@@ -10946,7 +10946,7 @@
       <c r="AY112" s="16"/>
       <c r="AZ112" s="41"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="23"/>
@@ -11000,7 +11000,7 @@
       <c r="AY113" s="16"/>
       <c r="AZ113" s="41"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="18"/>
       <c r="C114" s="23"/>
@@ -11054,7 +11054,7 @@
       <c r="AY114" s="16"/>
       <c r="AZ114" s="41"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="18"/>
       <c r="C115" s="23"/>
@@ -11108,7 +11108,7 @@
       <c r="AY115" s="16"/>
       <c r="AZ115" s="41"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="18"/>
       <c r="C116" s="23"/>
@@ -11162,7 +11162,7 @@
       <c r="AY116" s="16"/>
       <c r="AZ116" s="41"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="23"/>
@@ -11216,7 +11216,7 @@
       <c r="AY117" s="16"/>
       <c r="AZ117" s="41"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="18"/>
       <c r="C118" s="23"/>
@@ -11270,7 +11270,7 @@
       <c r="AY118" s="16"/>
       <c r="AZ118" s="41"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="23"/>
@@ -11324,7 +11324,7 @@
       <c r="AY119" s="16"/>
       <c r="AZ119" s="41"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
       <c r="C120" s="23"/>
@@ -11378,7 +11378,7 @@
       <c r="AY120" s="16"/>
       <c r="AZ120" s="41"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="23"/>
@@ -11432,7 +11432,7 @@
       <c r="AY121" s="16"/>
       <c r="AZ121" s="41"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="18"/>
       <c r="C122" s="23"/>
@@ -11486,7 +11486,7 @@
       <c r="AY122" s="16"/>
       <c r="AZ122" s="41"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="23"/>
@@ -11540,7 +11540,7 @@
       <c r="AY123" s="16"/>
       <c r="AZ123" s="41"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="18"/>
       <c r="C124" s="23"/>
@@ -11594,7 +11594,7 @@
       <c r="AY124" s="16"/>
       <c r="AZ124" s="41"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="18"/>
       <c r="C125" s="23"/>
@@ -11648,7 +11648,7 @@
       <c r="AY125" s="16"/>
       <c r="AZ125" s="41"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="23"/>
@@ -11702,7 +11702,7 @@
       <c r="AY126" s="16"/>
       <c r="AZ126" s="41"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="18"/>
       <c r="C127" s="23"/>
@@ -11756,7 +11756,7 @@
       <c r="AY127" s="16"/>
       <c r="AZ127" s="41"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="18"/>
       <c r="C128" s="23"/>
@@ -11810,7 +11810,7 @@
       <c r="AY128" s="16"/>
       <c r="AZ128" s="41"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="23"/>
@@ -11864,7 +11864,7 @@
       <c r="AY129" s="16"/>
       <c r="AZ129" s="41"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="18"/>
       <c r="C130" s="23"/>
@@ -11918,7 +11918,7 @@
       <c r="AY130" s="16"/>
       <c r="AZ130" s="41"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="18"/>
       <c r="C131" s="23"/>
@@ -11972,7 +11972,7 @@
       <c r="AY131" s="16"/>
       <c r="AZ131" s="41"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="23"/>
@@ -12026,7 +12026,7 @@
       <c r="AY132" s="16"/>
       <c r="AZ132" s="41"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="23"/>
@@ -12080,7 +12080,7 @@
       <c r="AY133" s="16"/>
       <c r="AZ133" s="41"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="23"/>
@@ -12134,7 +12134,7 @@
       <c r="AY134" s="16"/>
       <c r="AZ134" s="41"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="23"/>
@@ -12188,7 +12188,7 @@
       <c r="AY135" s="16"/>
       <c r="AZ135" s="41"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="23"/>
@@ -12242,7 +12242,7 @@
       <c r="AY136" s="16"/>
       <c r="AZ136" s="41"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="18"/>
       <c r="C137" s="23"/>
@@ -12296,7 +12296,7 @@
       <c r="AY137" s="16"/>
       <c r="AZ137" s="41"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="18"/>
       <c r="C138" s="23"/>
@@ -12350,7 +12350,7 @@
       <c r="AY138" s="16"/>
       <c r="AZ138" s="41"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="18"/>
       <c r="C139" s="23"/>
@@ -12404,7 +12404,7 @@
       <c r="AY139" s="16"/>
       <c r="AZ139" s="41"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="23"/>
@@ -12458,7 +12458,7 @@
       <c r="AY140" s="16"/>
       <c r="AZ140" s="41"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="23"/>
@@ -12512,7 +12512,7 @@
       <c r="AY141" s="16"/>
       <c r="AZ141" s="41"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="23"/>
@@ -12566,7 +12566,7 @@
       <c r="AY142" s="16"/>
       <c r="AZ142" s="41"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="23"/>
@@ -12620,7 +12620,7 @@
       <c r="AY143" s="16"/>
       <c r="AZ143" s="41"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="23"/>
@@ -12674,7 +12674,7 @@
       <c r="AY144" s="16"/>
       <c r="AZ144" s="41"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="23"/>
@@ -12728,7 +12728,7 @@
       <c r="AY145" s="16"/>
       <c r="AZ145" s="41"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="18"/>
       <c r="C146" s="23"/>
@@ -12782,7 +12782,7 @@
       <c r="AY146" s="16"/>
       <c r="AZ146" s="41"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="23"/>
@@ -12836,7 +12836,7 @@
       <c r="AY147" s="16"/>
       <c r="AZ147" s="41"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="18"/>
       <c r="C148" s="23"/>
@@ -12890,7 +12890,7 @@
       <c r="AY148" s="16"/>
       <c r="AZ148" s="41"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="23"/>
@@ -12944,7 +12944,7 @@
       <c r="AY149" s="16"/>
       <c r="AZ149" s="41"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="18"/>
       <c r="C150" s="23"/>
@@ -12998,7 +12998,7 @@
       <c r="AY150" s="16"/>
       <c r="AZ150" s="41"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="23"/>
@@ -13052,7 +13052,7 @@
       <c r="AY151" s="16"/>
       <c r="AZ151" s="41"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="18"/>
       <c r="C152" s="23"/>
@@ -13106,7 +13106,7 @@
       <c r="AY152" s="16"/>
       <c r="AZ152" s="41"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="23"/>
@@ -13160,7 +13160,7 @@
       <c r="AY153" s="16"/>
       <c r="AZ153" s="41"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="18"/>
       <c r="C154" s="23"/>
@@ -13214,7 +13214,7 @@
       <c r="AY154" s="16"/>
       <c r="AZ154" s="41"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="23"/>
@@ -13268,7 +13268,7 @@
       <c r="AY155" s="16"/>
       <c r="AZ155" s="41"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="18"/>
       <c r="C156" s="23"/>
@@ -13322,7 +13322,7 @@
       <c r="AY156" s="16"/>
       <c r="AZ156" s="41"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="18"/>
       <c r="C157" s="23"/>
@@ -13376,7 +13376,7 @@
       <c r="AY157" s="16"/>
       <c r="AZ157" s="41"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="23"/>
@@ -13430,7 +13430,7 @@
       <c r="AY158" s="16"/>
       <c r="AZ158" s="41"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="18"/>
       <c r="C159" s="23"/>
@@ -13484,7 +13484,7 @@
       <c r="AY159" s="16"/>
       <c r="AZ159" s="41"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="18"/>
       <c r="C160" s="23"/>
@@ -13541,14 +13541,31 @@
   </sheetData>
   <sheetProtection password="CA83" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="47">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="U5:W5"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AG4:AI4"/>
@@ -13563,31 +13580,14 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G3">
     <cfRule type="cellIs" dxfId="71" priority="37" operator="between">
@@ -13730,440 +13730,440 @@
       <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.5" customWidth="1"/>
     <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="1" customWidth="1"/>
-    <col min="21" max="21" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1" customWidth="1"/>
     <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="1.5" customWidth="1"/>
     <col min="30" max="30" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="1" customWidth="1"/>
-    <col min="34" max="34" width="12.125" customWidth="1"/>
-    <col min="35" max="35" width="12.75" customWidth="1"/>
+    <col min="34" max="34" width="12.09765625" customWidth="1"/>
+    <col min="35" max="35" width="12.69921875" customWidth="1"/>
     <col min="36" max="36" width="1" customWidth="1"/>
-    <col min="38" max="38" width="12.125" customWidth="1"/>
-    <col min="39" max="39" width="12.75" customWidth="1"/>
+    <col min="38" max="38" width="12.09765625" customWidth="1"/>
+    <col min="39" max="39" width="12.69921875" customWidth="1"/>
     <col min="40" max="40" width="1.5" customWidth="1"/>
-    <col min="42" max="42" width="12.125" customWidth="1"/>
-    <col min="43" max="43" width="12.75" customWidth="1"/>
+    <col min="42" max="42" width="12.09765625" customWidth="1"/>
+    <col min="43" max="43" width="12.69921875" customWidth="1"/>
     <col min="44" max="44" width="1" customWidth="1"/>
-    <col min="46" max="46" width="12.125" customWidth="1"/>
-    <col min="47" max="47" width="12.75" customWidth="1"/>
+    <col min="46" max="46" width="12.09765625" customWidth="1"/>
+    <col min="47" max="47" width="12.69921875" customWidth="1"/>
     <col min="48" max="48" width="1" customWidth="1"/>
-    <col min="50" max="50" width="12.125" customWidth="1"/>
-    <col min="51" max="51" width="12.75" customWidth="1"/>
+    <col min="50" max="50" width="12.09765625" customWidth="1"/>
+    <col min="51" max="51" width="12.69921875" customWidth="1"/>
     <col min="52" max="52" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:52" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
       <c r="X1" s="25"/>
       <c r="Y1" s="25"/>
       <c r="Z1" s="25"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AC1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
       <c r="AJ1" s="25"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="6"/>
-      <c r="AO1" s="50" t="s">
+      <c r="AO1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
       <c r="AV1" s="25"/>
       <c r="AW1" s="25"/>
       <c r="AX1" s="25"/>
       <c r="AY1" s="25"/>
       <c r="AZ1" s="6"/>
     </row>
-    <row r="2" spans="1:52" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:52" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="21"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="52">
+      <c r="E2" s="50">
         <f>AVERAGE(E5:K5)</f>
         <v>3.4222222222222216</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="4"/>
       <c r="M2" s="21"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="52">
+      <c r="Q2" s="50">
         <f>AVERAGE(Q5:W5)</f>
         <v>3.7222222222222223</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="52">
+      <c r="AC2" s="50">
         <f>AVERAGE(AC5:AI5)</f>
         <v>3.5574712643678161</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="39"/>
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="6"/>
-      <c r="AO2" s="52" t="e">
+      <c r="AO2" s="50" t="e">
         <f>AVERAGE(AO5:AU5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
       <c r="AV2" s="4"/>
       <c r="AW2" s="39"/>
       <c r="AX2" s="39"/>
       <c r="AY2" s="39"/>
       <c r="AZ2" s="6"/>
     </row>
-    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="22"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="46">
+      <c r="E3" s="53">
         <f>((450-COUNTBLANK(E11:G160)-COUNTIF(E11:G160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(E11:G160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="46">
+      <c r="I3" s="53">
         <f>((450-COUNTBLANK(I11:K160)-COUNTIF(I11:K160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(I11:K160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="46">
+      <c r="M3" s="53">
         <f>((450-COUNTBLANK(M11:O160)-COUNTIF(M11:O160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(M11:O160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="46">
+      <c r="Q3" s="53">
         <f>((450-COUNTBLANK(Q11:S160)-COUNTIF(Q11:S160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Q11:S160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="46">
+      <c r="U3" s="53">
         <f>((450-COUNTBLANK(U11:W160)-COUNTIF(U11:W160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(U11:W160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="46">
+      <c r="Y3" s="53">
         <f>((450-COUNTBLANK(Y11:AA160)-COUNTIF(Y11:AA160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Y11:AA160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="46">
+      <c r="AC3" s="53">
         <f>((450-COUNTBLANK(AC11:AE160)-COUNTIF(AC11:AE160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AC11:AE160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="46">
+      <c r="AG3" s="53">
         <f>((450-COUNTBLANK(AG11:AI160)-COUNTIF(AG11:AI160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AG11:AI160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="46">
+      <c r="AK3" s="53">
         <f>((450-COUNTBLANK(AK11:AM160)-COUNTIF(AK11:AM160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AK11:AM160, "NETR")/3))))))</f>
         <v>1</v>
       </c>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
       <c r="AN3" s="3"/>
-      <c r="AO3" s="46">
+      <c r="AO3" s="53">
         <f>((450-COUNTBLANK(AO11:AQ160)-COUNTIF(AO11:AQ160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AO11:AQ160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
       <c r="AR3" s="3"/>
-      <c r="AS3" s="46">
+      <c r="AS3" s="53">
         <f>((450-COUNTBLANK(AS11:AU160)-COUNTIF(AS11:AU160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AS11:AU160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="46">
+      <c r="AW3" s="53">
         <f>((450-COUNTBLANK(AW11:AY160)-COUNTIF(AW11:AY160,"NETR"))/(3*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AW11:AY160, "NETR")/3))))))</f>
         <v>0</v>
       </c>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D4" s="5"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="I4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="U4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
+      <c r="AG4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
       <c r="AN4" s="3"/>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
       <c r="AV4" s="3"/>
-      <c r="AW4" s="48" t="s">
+      <c r="AW4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="49">
+      <c r="E5" s="58">
         <f>IF(E8="","",AVERAGE(E8:G8))</f>
         <v>3.7777777777777772</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="49">
+      <c r="I5" s="58">
         <f>IF(I8="","",AVERAGE(I8:K8))</f>
         <v>3.0666666666666664</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="49" t="str">
+      <c r="M5" s="58" t="str">
         <f>IF(M8="","",AVERAGE(M8:O8))</f>
         <v/>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="49">
+      <c r="Q5" s="58">
         <f>IF(Q8="","",AVERAGE(Q8:S8))</f>
         <v>3.9666666666666668</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="49">
+      <c r="U5" s="58">
         <f>IF(U8="","",AVERAGE(U8:W8))</f>
         <v>3.4777777777777779</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="49">
+      <c r="Y5" s="58">
         <f>IF(Y8="","",AVERAGE(Y8:AA8))</f>
         <v>3.9555555555555557</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="49">
+      <c r="AC5" s="58">
         <f>IF(AC8="","",AVERAGE(AC8:AE8))</f>
         <v>3.7816091954022988</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="49">
+      <c r="AG5" s="58">
         <f>IF(AG8="","",AVERAGE(AG8:AI8))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="49">
+      <c r="AK5" s="58">
         <f>IF(AK8="","",AVERAGE(AK8:AM8))</f>
         <v>3.7931034482758617</v>
       </c>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="49" t="str">
+      <c r="AO5" s="58" t="str">
         <f>IF(AO8="","",AVERAGE(AO8:AQ8))</f>
         <v/>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
       <c r="AR5" s="3"/>
-      <c r="AS5" s="49" t="str">
+      <c r="AS5" s="58" t="str">
         <f>IF(AS8="","",AVERAGE(AS8:AU8))</f>
         <v/>
       </c>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
       <c r="AV5" s="3"/>
-      <c r="AW5" s="49" t="str">
+      <c r="AW5" s="58" t="str">
         <f>IF(AW8="","",AVERAGE(AW8:AY8))</f>
         <v/>
       </c>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="78" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="26" t="s">
         <v>13</v>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="H9" s="4"/>
       <c r="L9" s="4"/>
@@ -14591,7 +14591,7 @@
       <c r="AV9" s="4"/>
       <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -14651,7 +14651,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="5"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="AY11" s="13"/>
       <c r="AZ11" s="40"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="AY12" s="13"/>
       <c r="AZ12" s="40"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AY13" s="13"/>
       <c r="AZ13" s="40"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="AY14" s="13"/>
       <c r="AZ14" s="40"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -15181,7 +15181,7 @@
       <c r="AY15" s="13"/>
       <c r="AZ15" s="40"/>
     </row>
-    <row r="16" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -15287,7 +15287,7 @@
       <c r="AY16" s="13"/>
       <c r="AZ16" s="40"/>
     </row>
-    <row r="17" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -15393,7 +15393,7 @@
       <c r="AY17" s="13"/>
       <c r="AZ17" s="40"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -15499,7 +15499,7 @@
       <c r="AY18" s="13"/>
       <c r="AZ18" s="40"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -15605,7 +15605,7 @@
       <c r="AY19" s="13"/>
       <c r="AZ19" s="40"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -15711,7 +15711,7 @@
       <c r="AY20" s="13"/>
       <c r="AZ20" s="40"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -15817,7 +15817,7 @@
       <c r="AY21" s="13"/>
       <c r="AZ21" s="40"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="AY22" s="13"/>
       <c r="AZ22" s="40"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="AY23" s="13"/>
       <c r="AZ23" s="40"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -16135,7 +16135,7 @@
       <c r="AY24" s="13"/>
       <c r="AZ24" s="40"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -16241,7 +16241,7 @@
       <c r="AY25" s="13"/>
       <c r="AZ25" s="40"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -16347,7 +16347,7 @@
       <c r="AY26" s="13"/>
       <c r="AZ26" s="40"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -16453,7 +16453,7 @@
       <c r="AY27" s="13"/>
       <c r="AZ27" s="40"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -16559,7 +16559,7 @@
       <c r="AY28" s="13"/>
       <c r="AZ28" s="40"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -16665,7 +16665,7 @@
       <c r="AY29" s="13"/>
       <c r="AZ29" s="40"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="AY30" s="13"/>
       <c r="AZ30" s="40"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -16877,7 +16877,7 @@
       <c r="AY31" s="13"/>
       <c r="AZ31" s="40"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -16983,7 +16983,7 @@
       <c r="AY32" s="13"/>
       <c r="AZ32" s="40"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -17089,7 +17089,7 @@
       <c r="AY33" s="13"/>
       <c r="AZ33" s="40"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -17195,7 +17195,7 @@
       <c r="AY34" s="13"/>
       <c r="AZ34" s="40"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -17301,7 +17301,7 @@
       <c r="AY35" s="13"/>
       <c r="AZ35" s="40"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -17407,7 +17407,7 @@
       <c r="AY36" s="13"/>
       <c r="AZ36" s="40"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -17513,7 +17513,7 @@
       <c r="AY37" s="13"/>
       <c r="AZ37" s="40"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -17619,7 +17619,7 @@
       <c r="AY38" s="13"/>
       <c r="AZ38" s="40"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -17725,7 +17725,7 @@
       <c r="AY39" s="13"/>
       <c r="AZ39" s="40"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -17831,7 +17831,7 @@
       <c r="AY40" s="13"/>
       <c r="AZ40" s="40"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -17885,7 +17885,7 @@
       <c r="AY41" s="13"/>
       <c r="AZ41" s="40"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="23"/>
@@ -17939,7 +17939,7 @@
       <c r="AY42" s="13"/>
       <c r="AZ42" s="40"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="23"/>
@@ -17993,7 +17993,7 @@
       <c r="AY43" s="13"/>
       <c r="AZ43" s="40"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="23"/>
@@ -18047,7 +18047,7 @@
       <c r="AY44" s="13"/>
       <c r="AZ44" s="40"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="23"/>
@@ -18101,7 +18101,7 @@
       <c r="AY45" s="13"/>
       <c r="AZ45" s="40"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="23"/>
@@ -18155,7 +18155,7 @@
       <c r="AY46" s="13"/>
       <c r="AZ46" s="40"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="23"/>
@@ -18209,7 +18209,7 @@
       <c r="AY47" s="13"/>
       <c r="AZ47" s="40"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="23"/>
@@ -18263,7 +18263,7 @@
       <c r="AY48" s="13"/>
       <c r="AZ48" s="40"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="23"/>
@@ -18317,7 +18317,7 @@
       <c r="AY49" s="13"/>
       <c r="AZ49" s="40"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="23"/>
@@ -18371,7 +18371,7 @@
       <c r="AY50" s="13"/>
       <c r="AZ50" s="40"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="23"/>
@@ -18425,7 +18425,7 @@
       <c r="AY51" s="13"/>
       <c r="AZ51" s="40"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="23"/>
@@ -18479,7 +18479,7 @@
       <c r="AY52" s="13"/>
       <c r="AZ52" s="40"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="23"/>
@@ -18533,7 +18533,7 @@
       <c r="AY53" s="13"/>
       <c r="AZ53" s="40"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="23"/>
@@ -18587,7 +18587,7 @@
       <c r="AY54" s="13"/>
       <c r="AZ54" s="40"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="23"/>
@@ -18641,7 +18641,7 @@
       <c r="AY55" s="13"/>
       <c r="AZ55" s="40"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="23"/>
@@ -18695,7 +18695,7 @@
       <c r="AY56" s="13"/>
       <c r="AZ56" s="40"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="23"/>
@@ -18749,7 +18749,7 @@
       <c r="AY57" s="13"/>
       <c r="AZ57" s="40"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="23"/>
@@ -18803,7 +18803,7 @@
       <c r="AY58" s="13"/>
       <c r="AZ58" s="40"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="23"/>
@@ -18857,7 +18857,7 @@
       <c r="AY59" s="13"/>
       <c r="AZ59" s="40"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="23"/>
@@ -18911,7 +18911,7 @@
       <c r="AY60" s="13"/>
       <c r="AZ60" s="40"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="23"/>
@@ -18965,7 +18965,7 @@
       <c r="AY61" s="13"/>
       <c r="AZ61" s="40"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="23"/>
@@ -19019,7 +19019,7 @@
       <c r="AY62" s="13"/>
       <c r="AZ62" s="40"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="23"/>
@@ -19073,7 +19073,7 @@
       <c r="AY63" s="13"/>
       <c r="AZ63" s="40"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="23"/>
@@ -19127,7 +19127,7 @@
       <c r="AY64" s="13"/>
       <c r="AZ64" s="40"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="23"/>
@@ -19181,7 +19181,7 @@
       <c r="AY65" s="13"/>
       <c r="AZ65" s="40"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="23"/>
@@ -19235,7 +19235,7 @@
       <c r="AY66" s="13"/>
       <c r="AZ66" s="40"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="23"/>
@@ -19289,7 +19289,7 @@
       <c r="AY67" s="13"/>
       <c r="AZ67" s="40"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="23"/>
@@ -19343,7 +19343,7 @@
       <c r="AY68" s="13"/>
       <c r="AZ68" s="40"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="23"/>
@@ -19397,7 +19397,7 @@
       <c r="AY69" s="13"/>
       <c r="AZ69" s="40"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="23"/>
@@ -19451,7 +19451,7 @@
       <c r="AY70" s="13"/>
       <c r="AZ70" s="40"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="23"/>
@@ -19505,7 +19505,7 @@
       <c r="AY71" s="13"/>
       <c r="AZ71" s="40"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="23"/>
@@ -19559,7 +19559,7 @@
       <c r="AY72" s="13"/>
       <c r="AZ72" s="40"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="23"/>
@@ -19613,7 +19613,7 @@
       <c r="AY73" s="13"/>
       <c r="AZ73" s="40"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="23"/>
@@ -19667,7 +19667,7 @@
       <c r="AY74" s="13"/>
       <c r="AZ74" s="40"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="23"/>
@@ -19721,7 +19721,7 @@
       <c r="AY75" s="13"/>
       <c r="AZ75" s="40"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="23"/>
@@ -19775,7 +19775,7 @@
       <c r="AY76" s="13"/>
       <c r="AZ76" s="40"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="23"/>
@@ -19829,7 +19829,7 @@
       <c r="AY77" s="13"/>
       <c r="AZ77" s="40"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="23"/>
@@ -19883,7 +19883,7 @@
       <c r="AY78" s="13"/>
       <c r="AZ78" s="40"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="23"/>
@@ -19937,7 +19937,7 @@
       <c r="AY79" s="16"/>
       <c r="AZ79" s="41"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="23"/>
@@ -19991,7 +19991,7 @@
       <c r="AY80" s="16"/>
       <c r="AZ80" s="41"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="23"/>
@@ -20045,7 +20045,7 @@
       <c r="AY81" s="16"/>
       <c r="AZ81" s="41"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="23"/>
@@ -20099,7 +20099,7 @@
       <c r="AY82" s="16"/>
       <c r="AZ82" s="41"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="23"/>
@@ -20153,7 +20153,7 @@
       <c r="AY83" s="16"/>
       <c r="AZ83" s="41"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="23"/>
@@ -20207,7 +20207,7 @@
       <c r="AY84" s="16"/>
       <c r="AZ84" s="41"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="23"/>
@@ -20261,7 +20261,7 @@
       <c r="AY85" s="16"/>
       <c r="AZ85" s="41"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="23"/>
@@ -20315,7 +20315,7 @@
       <c r="AY86" s="16"/>
       <c r="AZ86" s="41"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="23"/>
@@ -20369,7 +20369,7 @@
       <c r="AY87" s="16"/>
       <c r="AZ87" s="41"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="23"/>
@@ -20423,7 +20423,7 @@
       <c r="AY88" s="16"/>
       <c r="AZ88" s="41"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="23"/>
@@ -20477,7 +20477,7 @@
       <c r="AY89" s="16"/>
       <c r="AZ89" s="41"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="23"/>
@@ -20531,7 +20531,7 @@
       <c r="AY90" s="16"/>
       <c r="AZ90" s="41"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="23"/>
@@ -20585,7 +20585,7 @@
       <c r="AY91" s="16"/>
       <c r="AZ91" s="41"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="23"/>
@@ -20639,7 +20639,7 @@
       <c r="AY92" s="16"/>
       <c r="AZ92" s="41"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="23"/>
@@ -20693,7 +20693,7 @@
       <c r="AY93" s="16"/>
       <c r="AZ93" s="41"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="23"/>
@@ -20747,7 +20747,7 @@
       <c r="AY94" s="16"/>
       <c r="AZ94" s="41"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="23"/>
@@ -20801,7 +20801,7 @@
       <c r="AY95" s="16"/>
       <c r="AZ95" s="41"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="23"/>
@@ -20855,7 +20855,7 @@
       <c r="AY96" s="16"/>
       <c r="AZ96" s="41"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="23"/>
@@ -20909,7 +20909,7 @@
       <c r="AY97" s="16"/>
       <c r="AZ97" s="41"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="23"/>
@@ -20963,7 +20963,7 @@
       <c r="AY98" s="16"/>
       <c r="AZ98" s="41"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="23"/>
@@ -21017,7 +21017,7 @@
       <c r="AY99" s="16"/>
       <c r="AZ99" s="41"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="23"/>
@@ -21071,7 +21071,7 @@
       <c r="AY100" s="16"/>
       <c r="AZ100" s="41"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="23"/>
@@ -21125,7 +21125,7 @@
       <c r="AY101" s="16"/>
       <c r="AZ101" s="41"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="23"/>
@@ -21179,7 +21179,7 @@
       <c r="AY102" s="16"/>
       <c r="AZ102" s="41"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="23"/>
@@ -21233,7 +21233,7 @@
       <c r="AY103" s="16"/>
       <c r="AZ103" s="41"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="23"/>
@@ -21287,7 +21287,7 @@
       <c r="AY104" s="16"/>
       <c r="AZ104" s="41"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="23"/>
@@ -21341,7 +21341,7 @@
       <c r="AY105" s="16"/>
       <c r="AZ105" s="41"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="23"/>
@@ -21395,7 +21395,7 @@
       <c r="AY106" s="16"/>
       <c r="AZ106" s="41"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="18"/>
       <c r="C107" s="23"/>
@@ -21449,7 +21449,7 @@
       <c r="AY107" s="16"/>
       <c r="AZ107" s="41"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="23"/>
@@ -21503,7 +21503,7 @@
       <c r="AY108" s="16"/>
       <c r="AZ108" s="41"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="18"/>
       <c r="C109" s="23"/>
@@ -21557,7 +21557,7 @@
       <c r="AY109" s="16"/>
       <c r="AZ109" s="41"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="23"/>
@@ -21611,7 +21611,7 @@
       <c r="AY110" s="16"/>
       <c r="AZ110" s="41"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="18"/>
       <c r="C111" s="23"/>
@@ -21665,7 +21665,7 @@
       <c r="AY111" s="16"/>
       <c r="AZ111" s="41"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="18"/>
       <c r="C112" s="23"/>
@@ -21719,7 +21719,7 @@
       <c r="AY112" s="16"/>
       <c r="AZ112" s="41"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="23"/>
@@ -21773,7 +21773,7 @@
       <c r="AY113" s="16"/>
       <c r="AZ113" s="41"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="18"/>
       <c r="C114" s="23"/>
@@ -21827,7 +21827,7 @@
       <c r="AY114" s="16"/>
       <c r="AZ114" s="41"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="18"/>
       <c r="C115" s="23"/>
@@ -21881,7 +21881,7 @@
       <c r="AY115" s="16"/>
       <c r="AZ115" s="41"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="18"/>
       <c r="C116" s="23"/>
@@ -21935,7 +21935,7 @@
       <c r="AY116" s="16"/>
       <c r="AZ116" s="41"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="23"/>
@@ -21989,7 +21989,7 @@
       <c r="AY117" s="16"/>
       <c r="AZ117" s="41"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="18"/>
       <c r="C118" s="23"/>
@@ -22043,7 +22043,7 @@
       <c r="AY118" s="16"/>
       <c r="AZ118" s="41"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="23"/>
@@ -22097,7 +22097,7 @@
       <c r="AY119" s="16"/>
       <c r="AZ119" s="41"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
       <c r="C120" s="23"/>
@@ -22151,7 +22151,7 @@
       <c r="AY120" s="16"/>
       <c r="AZ120" s="41"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="23"/>
@@ -22205,7 +22205,7 @@
       <c r="AY121" s="16"/>
       <c r="AZ121" s="41"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="18"/>
       <c r="C122" s="23"/>
@@ -22259,7 +22259,7 @@
       <c r="AY122" s="16"/>
       <c r="AZ122" s="41"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="23"/>
@@ -22313,7 +22313,7 @@
       <c r="AY123" s="16"/>
       <c r="AZ123" s="41"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="18"/>
       <c r="C124" s="23"/>
@@ -22367,7 +22367,7 @@
       <c r="AY124" s="16"/>
       <c r="AZ124" s="41"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="18"/>
       <c r="C125" s="23"/>
@@ -22421,7 +22421,7 @@
       <c r="AY125" s="16"/>
       <c r="AZ125" s="41"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="23"/>
@@ -22475,7 +22475,7 @@
       <c r="AY126" s="16"/>
       <c r="AZ126" s="41"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="18"/>
       <c r="C127" s="23"/>
@@ -22529,7 +22529,7 @@
       <c r="AY127" s="16"/>
       <c r="AZ127" s="41"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="18"/>
       <c r="C128" s="23"/>
@@ -22583,7 +22583,7 @@
       <c r="AY128" s="16"/>
       <c r="AZ128" s="41"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="23"/>
@@ -22637,7 +22637,7 @@
       <c r="AY129" s="16"/>
       <c r="AZ129" s="41"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="18"/>
       <c r="C130" s="23"/>
@@ -22691,7 +22691,7 @@
       <c r="AY130" s="16"/>
       <c r="AZ130" s="41"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="18"/>
       <c r="C131" s="23"/>
@@ -22745,7 +22745,7 @@
       <c r="AY131" s="16"/>
       <c r="AZ131" s="41"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="23"/>
@@ -22799,7 +22799,7 @@
       <c r="AY132" s="16"/>
       <c r="AZ132" s="41"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="23"/>
@@ -22853,7 +22853,7 @@
       <c r="AY133" s="16"/>
       <c r="AZ133" s="41"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="23"/>
@@ -22907,7 +22907,7 @@
       <c r="AY134" s="16"/>
       <c r="AZ134" s="41"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="23"/>
@@ -22961,7 +22961,7 @@
       <c r="AY135" s="16"/>
       <c r="AZ135" s="41"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="23"/>
@@ -23015,7 +23015,7 @@
       <c r="AY136" s="16"/>
       <c r="AZ136" s="41"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="18"/>
       <c r="C137" s="23"/>
@@ -23069,7 +23069,7 @@
       <c r="AY137" s="16"/>
       <c r="AZ137" s="41"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="18"/>
       <c r="C138" s="23"/>
@@ -23123,7 +23123,7 @@
       <c r="AY138" s="16"/>
       <c r="AZ138" s="41"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="18"/>
       <c r="C139" s="23"/>
@@ -23177,7 +23177,7 @@
       <c r="AY139" s="16"/>
       <c r="AZ139" s="41"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="23"/>
@@ -23231,7 +23231,7 @@
       <c r="AY140" s="16"/>
       <c r="AZ140" s="41"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="23"/>
@@ -23285,7 +23285,7 @@
       <c r="AY141" s="16"/>
       <c r="AZ141" s="41"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="23"/>
@@ -23339,7 +23339,7 @@
       <c r="AY142" s="16"/>
       <c r="AZ142" s="41"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="23"/>
@@ -23393,7 +23393,7 @@
       <c r="AY143" s="16"/>
       <c r="AZ143" s="41"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="23"/>
@@ -23447,7 +23447,7 @@
       <c r="AY144" s="16"/>
       <c r="AZ144" s="41"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="23"/>
@@ -23501,7 +23501,7 @@
       <c r="AY145" s="16"/>
       <c r="AZ145" s="41"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="18"/>
       <c r="C146" s="23"/>
@@ -23555,7 +23555,7 @@
       <c r="AY146" s="16"/>
       <c r="AZ146" s="41"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="23"/>
@@ -23609,7 +23609,7 @@
       <c r="AY147" s="16"/>
       <c r="AZ147" s="41"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="18"/>
       <c r="C148" s="23"/>
@@ -23663,7 +23663,7 @@
       <c r="AY148" s="16"/>
       <c r="AZ148" s="41"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="23"/>
@@ -23717,7 +23717,7 @@
       <c r="AY149" s="16"/>
       <c r="AZ149" s="41"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="18"/>
       <c r="C150" s="23"/>
@@ -23771,7 +23771,7 @@
       <c r="AY150" s="16"/>
       <c r="AZ150" s="41"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="23"/>
@@ -23825,7 +23825,7 @@
       <c r="AY151" s="16"/>
       <c r="AZ151" s="41"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="18"/>
       <c r="C152" s="23"/>
@@ -23879,7 +23879,7 @@
       <c r="AY152" s="16"/>
       <c r="AZ152" s="41"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="23"/>
@@ -23933,7 +23933,7 @@
       <c r="AY153" s="16"/>
       <c r="AZ153" s="41"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="18"/>
       <c r="C154" s="23"/>
@@ -23987,7 +23987,7 @@
       <c r="AY154" s="16"/>
       <c r="AZ154" s="41"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="23"/>
@@ -24041,7 +24041,7 @@
       <c r="AY155" s="16"/>
       <c r="AZ155" s="41"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="18"/>
       <c r="C156" s="23"/>
@@ -24095,7 +24095,7 @@
       <c r="AY156" s="16"/>
       <c r="AZ156" s="41"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="18"/>
       <c r="C157" s="23"/>
@@ -24149,7 +24149,7 @@
       <c r="AY157" s="16"/>
       <c r="AZ157" s="41"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="23"/>
@@ -24203,7 +24203,7 @@
       <c r="AY158" s="16"/>
       <c r="AZ158" s="41"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="18"/>
       <c r="C159" s="23"/>
@@ -24257,7 +24257,7 @@
       <c r="AY159" s="16"/>
       <c r="AZ159" s="41"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="18"/>
       <c r="C160" s="23"/>
@@ -24314,21 +24314,22 @@
   </sheetData>
   <sheetProtection password="CA83" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="47">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AS5:AU5"/>
+    <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AW3:AY3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="I4:K4"/>
@@ -24345,22 +24346,21 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AO3:AQ3"/>
     <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="AO2:AU2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G3">
     <cfRule type="cellIs" dxfId="47" priority="37" operator="between">
@@ -24500,56 +24500,56 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21"/>
+      <selection pane="topRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
     <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.09765625" customWidth="1"/>
     <col min="13" max="13" width="1.5" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" customWidth="1"/>
     <col min="16" max="16" width="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="18" max="18" width="13.09765625" customWidth="1"/>
     <col min="19" max="19" width="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" customWidth="1"/>
-    <col min="21" max="21" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="12.59765625" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
     <col min="22" max="22" width="1.5" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="24" width="13.125" customWidth="1"/>
+    <col min="23" max="23" width="12.59765625" customWidth="1"/>
+    <col min="24" max="24" width="13.09765625" customWidth="1"/>
     <col min="25" max="25" width="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" customWidth="1"/>
-    <col min="27" max="27" width="13.125" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" customWidth="1"/>
+    <col min="27" max="27" width="13.09765625" customWidth="1"/>
     <col min="28" max="28" width="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="13.125" customWidth="1"/>
+    <col min="29" max="29" width="12.59765625" customWidth="1"/>
+    <col min="30" max="30" width="13.09765625" customWidth="1"/>
     <col min="31" max="31" width="1.5" customWidth="1"/>
-    <col min="32" max="32" width="12.625" customWidth="1"/>
-    <col min="33" max="33" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="12.59765625" customWidth="1"/>
+    <col min="33" max="33" width="13.09765625" customWidth="1"/>
     <col min="34" max="34" width="1" customWidth="1"/>
-    <col min="35" max="35" width="12.625" customWidth="1"/>
-    <col min="36" max="36" width="13.125" customWidth="1"/>
+    <col min="35" max="35" width="12.59765625" customWidth="1"/>
+    <col min="36" max="36" width="13.09765625" customWidth="1"/>
     <col min="37" max="37" width="1" customWidth="1"/>
-    <col min="38" max="38" width="12.625" customWidth="1"/>
-    <col min="39" max="39" width="13.125" customWidth="1"/>
+    <col min="38" max="38" width="12.59765625" customWidth="1"/>
+    <col min="39" max="39" width="13.09765625" customWidth="1"/>
     <col min="40" max="40" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:40" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="52"/>
       <c r="D1" s="5"/>
       <c r="E1" s="59" t="s">
         <v>85</v>
@@ -24596,286 +24596,286 @@
       <c r="AM1" s="25"/>
       <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="21"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="52">
+      <c r="E2" s="50">
         <f>AVERAGE(E5:I5)</f>
         <v>3.3499999999999996</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="4"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="52">
+      <c r="N2" s="50">
         <f>AVERAGE(N5:R5)</f>
         <v>3.7583333333333333</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
       <c r="S2" s="4"/>
       <c r="T2" s="21"/>
       <c r="U2" s="20"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="52">
+      <c r="W2" s="50">
         <f>AVERAGE(W5:AA5)</f>
         <v>3.6206896551724137</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="21"/>
       <c r="AD2" s="20"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="52" t="e">
+      <c r="AF2" s="50" t="e">
         <f>AVERAGE(AF5:AJ5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="21"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="22"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="46">
+      <c r="E3" s="53">
         <f>((300-COUNTBLANK(E11:F160)-COUNTIF(E11:F160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(E11:F160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="46">
+      <c r="H3" s="53">
         <f>((300-COUNTBLANK(H11:I160)-COUNTIF(H11:I160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(H11:I160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="46">
+      <c r="K3" s="53">
         <f>((300-COUNTBLANK(K11:L160)-COUNTIF(K11:L160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(K11:L160, "NETR")/2))))))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="46">
+      <c r="N3" s="53">
         <f>((300-COUNTBLANK(N11:O160)-COUNTIF(N11:O160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(N11:O160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="O3" s="47"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="46">
+      <c r="Q3" s="53">
         <f>((300-COUNTBLANK(Q11:R160)-COUNTIF(Q11:R160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Q11:R160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="R3" s="47"/>
+      <c r="R3" s="54"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="46">
+      <c r="T3" s="53">
         <f>((300-COUNTBLANK(T11:U160)-COUNTIF(T11:U160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(T11:U160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="U3" s="47"/>
+      <c r="U3" s="54"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="46">
+      <c r="W3" s="53">
         <f>((300-COUNTBLANK(W11:X160)-COUNTIF(W11:X160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(W11:X160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="X3" s="47"/>
+      <c r="X3" s="54"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="46">
+      <c r="Z3" s="53">
         <f>((300-COUNTBLANK(Z11:AA160)-COUNTIF(Z11:AA160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(Z11:AA160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="AA3" s="47"/>
+      <c r="AA3" s="54"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="46">
+      <c r="AC3" s="53">
         <f>((300-COUNTBLANK(AC11:AD160)-COUNTIF(AC11:AD160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AC11:AD160, "NETR")/2))))))</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="47"/>
+      <c r="AD3" s="54"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="46">
+      <c r="AF3" s="53">
         <f>((300-COUNTBLANK(AF11:AG160)-COUNTIF(AF11:AG160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AF11:AG160, "NETR")/2))))))</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="47"/>
+      <c r="AG3" s="54"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="46">
+      <c r="AI3" s="53">
         <f>((300-COUNTBLANK(AI11:AJ160)-COUNTIF(AI11:AJ160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AI11:AJ160, "NETR")/2))))))</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="47"/>
+      <c r="AJ3" s="54"/>
       <c r="AK3" s="3"/>
-      <c r="AL3" s="46">
+      <c r="AL3" s="53">
         <f>((300-COUNTBLANK(AL11:AM160)-COUNTIF(AL11:AM160,"NETR"))/(2*((150-COUNTBLANK($A$11:$A$160)-(COUNTIF($C$11:$C$160,"Yes")+(COUNTIF(AL11:AM160, "NETR")/2))))))</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="47"/>
+      <c r="AM3" s="54"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D4" s="5"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="48"/>
+      <c r="H4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="55"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="48"/>
+      <c r="Q4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="55"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="48"/>
+      <c r="U4" s="55"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="48"/>
+      <c r="X4" s="55"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="48"/>
+      <c r="Z4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="55"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="48"/>
+      <c r="AD4" s="55"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="48" t="s">
+      <c r="AF4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="48"/>
+      <c r="AG4" s="55"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="48"/>
+      <c r="AI4" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="55"/>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="48" t="s">
+      <c r="AL4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="48"/>
+      <c r="AM4" s="55"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="49">
+      <c r="E5" s="58">
         <f>IF(E8="","",AVERAGE(E8:F8))</f>
         <v>3.8833333333333333</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="49">
+      <c r="H5" s="58">
         <f>IF(H8="","",AVERAGE(H8:I8))</f>
         <v>2.8166666666666664</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="49" t="str">
+      <c r="K5" s="58" t="str">
         <f>IF(K8="","",AVERAGE(K8:L8))</f>
         <v/>
       </c>
-      <c r="L5" s="49"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="49">
+      <c r="N5" s="58">
         <f>IF(N8="","",AVERAGE(N8:O8))</f>
         <v>4.0666666666666664</v>
       </c>
-      <c r="O5" s="49"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="49">
+      <c r="Q5" s="58">
         <f>IF(Q8="","",AVERAGE(Q8:R8))</f>
         <v>3.45</v>
       </c>
-      <c r="R5" s="49"/>
+      <c r="R5" s="58"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="49">
+      <c r="T5" s="58">
         <f>IF(T8="","",AVERAGE(T8:U8))</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="U5" s="49"/>
+      <c r="U5" s="58"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="49">
+      <c r="W5" s="58">
         <f>IF(W8="","",AVERAGE(W8:X8))</f>
         <v>3.9482758620689653</v>
       </c>
-      <c r="X5" s="49"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="49">
+      <c r="Z5" s="58">
         <f>IF(Z8="","",AVERAGE(Z8:AA8))</f>
         <v>3.2931034482758621</v>
       </c>
-      <c r="AA5" s="49"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="49">
+      <c r="AC5" s="58">
         <f>IF(AC8="","",AVERAGE(AC8:AD8))</f>
         <v>3.6724137931034484</v>
       </c>
-      <c r="AD5" s="49"/>
+      <c r="AD5" s="58"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="49" t="str">
+      <c r="AF5" s="58" t="str">
         <f>IF(AF8="","",AVERAGE(AF8:AG8))</f>
         <v/>
       </c>
-      <c r="AG5" s="49"/>
+      <c r="AG5" s="58"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="49" t="str">
+      <c r="AI5" s="58" t="str">
         <f>IF(AI8="","",AVERAGE(AI8:AJ8))</f>
         <v/>
       </c>
-      <c r="AJ5" s="49"/>
+      <c r="AJ5" s="58"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="49" t="str">
+      <c r="AL5" s="58" t="str">
         <f>IF(AL8="","",AVERAGE(AL8:AM8))</f>
         <v/>
       </c>
-      <c r="AM5" s="49"/>
+      <c r="AM5" s="58"/>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D6" s="5"/>
       <c r="E6" s="19" t="s">
         <v>2</v>
@@ -24962,7 +24962,7 @@
       </c>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:40" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="78" x14ac:dyDescent="0.3">
       <c r="D7" s="5"/>
       <c r="E7" s="26" t="s">
         <v>18</v>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D9" s="5"/>
       <c r="G9" s="4"/>
       <c r="J9" s="4"/>
@@ -25182,7 +25182,7 @@
       <c r="AK9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -25230,7 +25230,7 @@
       <c r="AM10" s="7"/>
       <c r="AN10" s="5"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -25308,7 +25308,7 @@
       <c r="AM11" s="13"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -25386,7 +25386,7 @@
       <c r="AM12" s="13"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -25464,7 +25464,7 @@
       <c r="AM13" s="13"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -25542,7 +25542,7 @@
       <c r="AM14" s="13"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -25620,7 +25620,7 @@
       <c r="AM15" s="13"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -25698,7 +25698,7 @@
       <c r="AM16" s="13"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -25776,7 +25776,7 @@
       <c r="AM17" s="13"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -25854,7 +25854,7 @@
       <c r="AM18" s="13"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -25932,7 +25932,7 @@
       <c r="AM19" s="13"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -26010,7 +26010,7 @@
       <c r="AM20" s="13"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -26088,7 +26088,7 @@
       <c r="AM21" s="13"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -26166,7 +26166,7 @@
       <c r="AM22" s="13"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -26244,7 +26244,7 @@
       <c r="AM23" s="13"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -26322,7 +26322,7 @@
       <c r="AM24" s="13"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -26400,7 +26400,7 @@
       <c r="AM25" s="13"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -26478,7 +26478,7 @@
       <c r="AM26" s="13"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -26556,7 +26556,7 @@
       <c r="AM27" s="13"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -26634,7 +26634,7 @@
       <c r="AM28" s="13"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -26712,7 +26712,7 @@
       <c r="AM29" s="13"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -26790,7 +26790,7 @@
       <c r="AM30" s="13"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -26868,7 +26868,7 @@
       <c r="AM31" s="13"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -26946,7 +26946,7 @@
       <c r="AM32" s="13"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -27024,7 +27024,7 @@
       <c r="AM33" s="13"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -27102,7 +27102,7 @@
       <c r="AM34" s="13"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -27180,7 +27180,7 @@
       <c r="AM35" s="13"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -27258,7 +27258,7 @@
       <c r="AM36" s="13"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -27336,7 +27336,7 @@
       <c r="AM37" s="13"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
@@ -27414,7 +27414,7 @@
       <c r="AM38" s="13"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -27492,7 +27492,7 @@
       <c r="AM39" s="13"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -27570,7 +27570,7 @@
       <c r="AM40" s="13"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -27612,7 +27612,7 @@
       <c r="AM41" s="13"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="23"/>
@@ -27654,7 +27654,7 @@
       <c r="AM42" s="13"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="23"/>
@@ -27696,7 +27696,7 @@
       <c r="AM43" s="13"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="23"/>
@@ -27738,7 +27738,7 @@
       <c r="AM44" s="13"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="23"/>
@@ -27780,7 +27780,7 @@
       <c r="AM45" s="13"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="23"/>
@@ -27822,7 +27822,7 @@
       <c r="AM46" s="13"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="23"/>
@@ -27864,7 +27864,7 @@
       <c r="AM47" s="13"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="23"/>
@@ -27906,7 +27906,7 @@
       <c r="AM48" s="13"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="23"/>
@@ -27948,7 +27948,7 @@
       <c r="AM49" s="13"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="23"/>
@@ -27990,7 +27990,7 @@
       <c r="AM50" s="13"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="23"/>
@@ -28032,7 +28032,7 @@
       <c r="AM51" s="13"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="23"/>
@@ -28074,7 +28074,7 @@
       <c r="AM52" s="13"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="23"/>
@@ -28116,7 +28116,7 @@
       <c r="AM53" s="13"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="23"/>
@@ -28158,7 +28158,7 @@
       <c r="AM54" s="13"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="23"/>
@@ -28200,7 +28200,7 @@
       <c r="AM55" s="13"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="23"/>
@@ -28242,7 +28242,7 @@
       <c r="AM56" s="13"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="23"/>
@@ -28284,7 +28284,7 @@
       <c r="AM57" s="13"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="23"/>
@@ -28326,7 +28326,7 @@
       <c r="AM58" s="13"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="23"/>
@@ -28368,7 +28368,7 @@
       <c r="AM59" s="13"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="23"/>
@@ -28410,7 +28410,7 @@
       <c r="AM60" s="13"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="23"/>
@@ -28452,7 +28452,7 @@
       <c r="AM61" s="13"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="23"/>
@@ -28494,7 +28494,7 @@
       <c r="AM62" s="13"/>
       <c r="AN62" s="40"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="23"/>
@@ -28536,7 +28536,7 @@
       <c r="AM63" s="13"/>
       <c r="AN63" s="40"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="23"/>
@@ -28578,7 +28578,7 @@
       <c r="AM64" s="13"/>
       <c r="AN64" s="40"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="23"/>
@@ -28620,7 +28620,7 @@
       <c r="AM65" s="13"/>
       <c r="AN65" s="40"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="23"/>
@@ -28662,7 +28662,7 @@
       <c r="AM66" s="13"/>
       <c r="AN66" s="40"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="23"/>
@@ -28704,7 +28704,7 @@
       <c r="AM67" s="13"/>
       <c r="AN67" s="40"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="23"/>
@@ -28746,7 +28746,7 @@
       <c r="AM68" s="13"/>
       <c r="AN68" s="40"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="23"/>
@@ -28788,7 +28788,7 @@
       <c r="AM69" s="13"/>
       <c r="AN69" s="40"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="23"/>
@@ -28830,7 +28830,7 @@
       <c r="AM70" s="13"/>
       <c r="AN70" s="40"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="23"/>
@@ -28872,7 +28872,7 @@
       <c r="AM71" s="13"/>
       <c r="AN71" s="40"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="23"/>
@@ -28914,7 +28914,7 @@
       <c r="AM72" s="13"/>
       <c r="AN72" s="40"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="23"/>
@@ -28956,7 +28956,7 @@
       <c r="AM73" s="13"/>
       <c r="AN73" s="40"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="23"/>
@@ -28998,7 +28998,7 @@
       <c r="AM74" s="13"/>
       <c r="AN74" s="40"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="23"/>
@@ -29040,7 +29040,7 @@
       <c r="AM75" s="13"/>
       <c r="AN75" s="40"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="23"/>
@@ -29082,7 +29082,7 @@
       <c r="AM76" s="13"/>
       <c r="AN76" s="40"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="23"/>
@@ -29124,7 +29124,7 @@
       <c r="AM77" s="13"/>
       <c r="AN77" s="40"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="23"/>
@@ -29166,7 +29166,7 @@
       <c r="AM78" s="13"/>
       <c r="AN78" s="40"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="23"/>
@@ -29208,7 +29208,7 @@
       <c r="AM79" s="16"/>
       <c r="AN79" s="41"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="23"/>
@@ -29250,7 +29250,7 @@
       <c r="AM80" s="16"/>
       <c r="AN80" s="41"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="23"/>
@@ -29292,7 +29292,7 @@
       <c r="AM81" s="16"/>
       <c r="AN81" s="41"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="23"/>
@@ -29334,7 +29334,7 @@
       <c r="AM82" s="16"/>
       <c r="AN82" s="41"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="23"/>
@@ -29376,7 +29376,7 @@
       <c r="AM83" s="16"/>
       <c r="AN83" s="41"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="23"/>
@@ -29418,7 +29418,7 @@
       <c r="AM84" s="16"/>
       <c r="AN84" s="41"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="23"/>
@@ -29460,7 +29460,7 @@
       <c r="AM85" s="16"/>
       <c r="AN85" s="41"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="23"/>
@@ -29502,7 +29502,7 @@
       <c r="AM86" s="16"/>
       <c r="AN86" s="41"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="23"/>
@@ -29544,7 +29544,7 @@
       <c r="AM87" s="16"/>
       <c r="AN87" s="41"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="23"/>
@@ -29586,7 +29586,7 @@
       <c r="AM88" s="16"/>
       <c r="AN88" s="41"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="23"/>
@@ -29628,7 +29628,7 @@
       <c r="AM89" s="16"/>
       <c r="AN89" s="41"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="23"/>
@@ -29670,7 +29670,7 @@
       <c r="AM90" s="16"/>
       <c r="AN90" s="41"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="23"/>
@@ -29712,7 +29712,7 @@
       <c r="AM91" s="16"/>
       <c r="AN91" s="41"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="23"/>
@@ -29754,7 +29754,7 @@
       <c r="AM92" s="16"/>
       <c r="AN92" s="41"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="23"/>
@@ -29796,7 +29796,7 @@
       <c r="AM93" s="16"/>
       <c r="AN93" s="41"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="23"/>
@@ -29838,7 +29838,7 @@
       <c r="AM94" s="16"/>
       <c r="AN94" s="41"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="23"/>
@@ -29880,7 +29880,7 @@
       <c r="AM95" s="16"/>
       <c r="AN95" s="41"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="23"/>
@@ -29922,7 +29922,7 @@
       <c r="AM96" s="16"/>
       <c r="AN96" s="41"/>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="23"/>
@@ -29964,7 +29964,7 @@
       <c r="AM97" s="16"/>
       <c r="AN97" s="41"/>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="23"/>
@@ -30006,7 +30006,7 @@
       <c r="AM98" s="16"/>
       <c r="AN98" s="41"/>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="23"/>
@@ -30048,7 +30048,7 @@
       <c r="AM99" s="16"/>
       <c r="AN99" s="41"/>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="23"/>
@@ -30090,7 +30090,7 @@
       <c r="AM100" s="16"/>
       <c r="AN100" s="41"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="23"/>
@@ -30132,7 +30132,7 @@
       <c r="AM101" s="16"/>
       <c r="AN101" s="41"/>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="23"/>
@@ -30174,7 +30174,7 @@
       <c r="AM102" s="16"/>
       <c r="AN102" s="41"/>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="23"/>
@@ -30216,7 +30216,7 @@
       <c r="AM103" s="16"/>
       <c r="AN103" s="41"/>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="23"/>
@@ -30258,7 +30258,7 @@
       <c r="AM104" s="16"/>
       <c r="AN104" s="41"/>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="23"/>
@@ -30300,7 +30300,7 @@
       <c r="AM105" s="16"/>
       <c r="AN105" s="41"/>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="23"/>
@@ -30342,7 +30342,7 @@
       <c r="AM106" s="16"/>
       <c r="AN106" s="41"/>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="18"/>
       <c r="C107" s="23"/>
@@ -30384,7 +30384,7 @@
       <c r="AM107" s="16"/>
       <c r="AN107" s="41"/>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="23"/>
@@ -30426,7 +30426,7 @@
       <c r="AM108" s="16"/>
       <c r="AN108" s="41"/>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="18"/>
       <c r="C109" s="23"/>
@@ -30468,7 +30468,7 @@
       <c r="AM109" s="16"/>
       <c r="AN109" s="41"/>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="23"/>
@@ -30510,7 +30510,7 @@
       <c r="AM110" s="16"/>
       <c r="AN110" s="41"/>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="18"/>
       <c r="C111" s="23"/>
@@ -30552,7 +30552,7 @@
       <c r="AM111" s="16"/>
       <c r="AN111" s="41"/>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="18"/>
       <c r="C112" s="23"/>
@@ -30594,7 +30594,7 @@
       <c r="AM112" s="16"/>
       <c r="AN112" s="41"/>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="23"/>
@@ -30636,7 +30636,7 @@
       <c r="AM113" s="16"/>
       <c r="AN113" s="41"/>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="18"/>
       <c r="C114" s="23"/>
@@ -30678,7 +30678,7 @@
       <c r="AM114" s="16"/>
       <c r="AN114" s="41"/>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="18"/>
       <c r="C115" s="23"/>
@@ -30720,7 +30720,7 @@
       <c r="AM115" s="16"/>
       <c r="AN115" s="41"/>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="18"/>
       <c r="C116" s="23"/>
@@ -30762,7 +30762,7 @@
       <c r="AM116" s="16"/>
       <c r="AN116" s="41"/>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="23"/>
@@ -30804,7 +30804,7 @@
       <c r="AM117" s="16"/>
       <c r="AN117" s="41"/>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="18"/>
       <c r="C118" s="23"/>
@@ -30846,7 +30846,7 @@
       <c r="AM118" s="16"/>
       <c r="AN118" s="41"/>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="23"/>
@@ -30888,7 +30888,7 @@
       <c r="AM119" s="16"/>
       <c r="AN119" s="41"/>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
       <c r="C120" s="23"/>
@@ -30930,7 +30930,7 @@
       <c r="AM120" s="16"/>
       <c r="AN120" s="41"/>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="23"/>
@@ -30972,7 +30972,7 @@
       <c r="AM121" s="16"/>
       <c r="AN121" s="41"/>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="18"/>
       <c r="C122" s="23"/>
@@ -31014,7 +31014,7 @@
       <c r="AM122" s="16"/>
       <c r="AN122" s="41"/>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="23"/>
@@ -31056,7 +31056,7 @@
       <c r="AM123" s="16"/>
       <c r="AN123" s="41"/>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="18"/>
       <c r="C124" s="23"/>
@@ -31098,7 +31098,7 @@
       <c r="AM124" s="16"/>
       <c r="AN124" s="41"/>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="18"/>
       <c r="C125" s="23"/>
@@ -31140,7 +31140,7 @@
       <c r="AM125" s="16"/>
       <c r="AN125" s="41"/>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="23"/>
@@ -31182,7 +31182,7 @@
       <c r="AM126" s="16"/>
       <c r="AN126" s="41"/>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="18"/>
       <c r="C127" s="23"/>
@@ -31224,7 +31224,7 @@
       <c r="AM127" s="16"/>
       <c r="AN127" s="41"/>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="18"/>
       <c r="C128" s="23"/>
@@ -31266,7 +31266,7 @@
       <c r="AM128" s="16"/>
       <c r="AN128" s="41"/>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="23"/>
@@ -31308,7 +31308,7 @@
       <c r="AM129" s="16"/>
       <c r="AN129" s="41"/>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="18"/>
       <c r="C130" s="23"/>
@@ -31350,7 +31350,7 @@
       <c r="AM130" s="16"/>
       <c r="AN130" s="41"/>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="18"/>
       <c r="C131" s="23"/>
@@ -31392,7 +31392,7 @@
       <c r="AM131" s="16"/>
       <c r="AN131" s="41"/>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="23"/>
@@ -31434,7 +31434,7 @@
       <c r="AM132" s="16"/>
       <c r="AN132" s="41"/>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="23"/>
@@ -31476,7 +31476,7 @@
       <c r="AM133" s="16"/>
       <c r="AN133" s="41"/>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="23"/>
@@ -31518,7 +31518,7 @@
       <c r="AM134" s="16"/>
       <c r="AN134" s="41"/>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="23"/>
@@ -31560,7 +31560,7 @@
       <c r="AM135" s="16"/>
       <c r="AN135" s="41"/>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="23"/>
@@ -31602,7 +31602,7 @@
       <c r="AM136" s="16"/>
       <c r="AN136" s="41"/>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="18"/>
       <c r="C137" s="23"/>
@@ -31644,7 +31644,7 @@
       <c r="AM137" s="16"/>
       <c r="AN137" s="41"/>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="18"/>
       <c r="C138" s="23"/>
@@ -31686,7 +31686,7 @@
       <c r="AM138" s="16"/>
       <c r="AN138" s="41"/>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="18"/>
       <c r="C139" s="23"/>
@@ -31728,7 +31728,7 @@
       <c r="AM139" s="16"/>
       <c r="AN139" s="41"/>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="23"/>
@@ -31770,7 +31770,7 @@
       <c r="AM140" s="16"/>
       <c r="AN140" s="41"/>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="23"/>
@@ -31812,7 +31812,7 @@
       <c r="AM141" s="16"/>
       <c r="AN141" s="41"/>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="23"/>
@@ -31854,7 +31854,7 @@
       <c r="AM142" s="16"/>
       <c r="AN142" s="41"/>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="23"/>
@@ -31896,7 +31896,7 @@
       <c r="AM143" s="16"/>
       <c r="AN143" s="41"/>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="23"/>
@@ -31938,7 +31938,7 @@
       <c r="AM144" s="16"/>
       <c r="AN144" s="41"/>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="23"/>
@@ -31980,7 +31980,7 @@
       <c r="AM145" s="16"/>
       <c r="AN145" s="41"/>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="18"/>
       <c r="C146" s="23"/>
@@ -32022,7 +32022,7 @@
       <c r="AM146" s="16"/>
       <c r="AN146" s="41"/>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="23"/>
@@ -32064,7 +32064,7 @@
       <c r="AM147" s="16"/>
       <c r="AN147" s="41"/>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="18"/>
       <c r="C148" s="23"/>
@@ -32106,7 +32106,7 @@
       <c r="AM148" s="16"/>
       <c r="AN148" s="41"/>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="23"/>
@@ -32148,7 +32148,7 @@
       <c r="AM149" s="16"/>
       <c r="AN149" s="41"/>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="18"/>
       <c r="C150" s="23"/>
@@ -32190,7 +32190,7 @@
       <c r="AM150" s="16"/>
       <c r="AN150" s="41"/>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="23"/>
@@ -32232,7 +32232,7 @@
       <c r="AM151" s="16"/>
       <c r="AN151" s="41"/>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="18"/>
       <c r="C152" s="23"/>
@@ -32274,7 +32274,7 @@
       <c r="AM152" s="16"/>
       <c r="AN152" s="41"/>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="23"/>
@@ -32316,7 +32316,7 @@
       <c r="AM153" s="16"/>
       <c r="AN153" s="41"/>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="18"/>
       <c r="C154" s="23"/>
@@ -32358,7 +32358,7 @@
       <c r="AM154" s="16"/>
       <c r="AN154" s="41"/>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="23"/>
@@ -32400,7 +32400,7 @@
       <c r="AM155" s="16"/>
       <c r="AN155" s="41"/>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="18"/>
       <c r="C156" s="23"/>
@@ -32442,7 +32442,7 @@
       <c r="AM156" s="16"/>
       <c r="AN156" s="41"/>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="18"/>
       <c r="C157" s="23"/>
@@ -32484,7 +32484,7 @@
       <c r="AM157" s="16"/>
       <c r="AN157" s="41"/>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="23"/>
@@ -32526,7 +32526,7 @@
       <c r="AM158" s="16"/>
       <c r="AN158" s="41"/>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="18"/>
       <c r="C159" s="23"/>
@@ -32568,7 +32568,7 @@
       <c r="AM159" s="16"/>
       <c r="AN159" s="41"/>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="18"/>
       <c r="C160" s="23"/>
@@ -32613,21 +32613,22 @@
   </sheetData>
   <sheetProtection password="CA83" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="47">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32644,22 +32645,21 @@
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AF2:AJ2"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:L3">
     <cfRule type="cellIs" dxfId="23" priority="35" operator="between">
